--- a/src/main/java/com/qa/hubspot/testdata/HubSpotTestData.xlsx
+++ b/src/main/java/com/qa/hubspot/testdata/HubSpotTestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/Dec2019POMSeries/src/main/java/com/qa/hubspot/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Selenium\Aug20Series\Aug20Seris\src\main\java\com\qa\hubspot\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955A439-E442-4F41-B0FC-4E25B88C9CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -54,11 +55,20 @@
   <si>
     <t>Eng Mangaer</t>
   </si>
+  <si>
+    <t>kjkj</t>
+  </si>
+  <si>
+    <t>kjk</t>
+  </si>
+  <si>
+    <t>hgy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,6 +124,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,20 +394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -420,6 +433,17 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -428,26 +452,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
